--- a/src/Erc.Households.Reports/Templates/turnover_balance_sheet_people.xlsx
+++ b/src/Erc.Households.Reports/Templates/turnover_balance_sheet_people.xlsx
@@ -151,7 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -169,10 +169,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -458,7 +461,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F5" activeCellId="4" sqref="J5 I5 H5 G5 F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,30 +478,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -544,19 +547,19 @@
       <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="8" t="s">
         <v>15</v>
       </c>
     </row>

--- a/src/Erc.Households.Reports/Templates/turnover_balance_sheet_people.xlsx
+++ b/src/Erc.Households.Reports/Templates/turnover_balance_sheet_people.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="People">Sheet1!$A$5:$J$6</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,9 +57,6 @@
     <t xml:space="preserve">{{item.start_date}} </t>
   </si>
   <si>
-    <t xml:space="preserve">{{item.start_debt}} </t>
-  </si>
-  <si>
     <t>{{item.payed}}</t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   <si>
     <t>ТОВ "ЖОЕК"
  {{bo_name}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{item.start_debt}} </t>
   </si>
 </sst>
 </file>
@@ -151,7 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -168,15 +168,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Звичайний 2" xfId="1"/>
@@ -458,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" activeCellId="4" sqref="J5 I5 H5 G5 F5"/>
+      <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,30 +479,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="B1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="B2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -519,7 +520,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>8</v>
@@ -531,7 +532,7 @@
         <v>7</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -547,21 +548,28 @@
       <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>15</v>
-      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/src/Erc.Households.Reports/Templates/turnover_balance_sheet_people.xlsx
+++ b/src/Erc.Households.Reports/Templates/turnover_balance_sheet_people.xlsx
@@ -60,12 +60,6 @@
     <t>{{item.payed}}</t>
   </si>
   <si>
-    <t xml:space="preserve"> {{item.total_units}} </t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{item.total_charge}} </t>
-  </si>
-  <si>
     <t>{{item.end_debt}}</t>
   </si>
   <si>
@@ -82,7 +76,13 @@
  {{bo_name}}</t>
   </si>
   <si>
-    <t xml:space="preserve">{{item.start_debt}} </t>
+    <t>{{item.start_debt}}</t>
+  </si>
+  <si>
+    <t>{{item.total_units}}</t>
+  </si>
+  <si>
+    <t>{{item.total_charge}}</t>
   </si>
 </sst>
 </file>
@@ -171,13 +171,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Звичайний 2" xfId="1"/>
@@ -479,30 +479,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="B1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -520,7 +520,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>8</v>
@@ -532,7 +532,7 @@
         <v>7</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -549,27 +549,27 @@
         <v>10</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
